--- a/Data Check List/Data Analytics Check list.xlsx
+++ b/Data Check List/Data Analytics Check list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\INTERN\Data Check List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39252359-2708-4D56-83A1-5E00CC32B4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AABEA-5E0C-4034-A17E-2879EBA1F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Steps</t>
   </si>
@@ -896,6 +896,15 @@
   </si>
   <si>
     <t>Null values in the categorical columns were imputed with the mode values so as to clean the data for better analysis</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Numeric Col = 12</t>
+  </si>
+  <si>
+    <t>Categorical col = 4</t>
   </si>
 </sst>
 </file>
@@ -1345,9 +1354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W962"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1639,9 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="11" t="s">
         <v>18</v>
@@ -1641,7 +1652,9 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="B19" s="12"/>
       <c r="C19" s="11" t="s">
         <v>19</v>
@@ -1733,7 +1746,9 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="11" t="s">
         <v>27</v>
@@ -1786,6 +1801,9 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1805,7 +1823,9 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
         <v>33</v>
@@ -1816,7 +1836,9 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="19" t="s">
         <v>34</v>
@@ -9262,7 +9284,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
